--- a/ValueSet-PMIIdentifierTypeVS.xlsx
+++ b/ValueSet-PMIIdentifierTypeVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T19:01:04+00:00</t>
+    <t>2023-01-17T01:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
